--- a/emails.xlsx
+++ b/emails.xlsx
@@ -14,39 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11" count="11">
-  <x:si>
-    <x:t>$__</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$isNew</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_doc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"email":"markofapad6721@gmail.com","createdAt":"2023-07-26T13:12:02.855Z"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"email":"hello@gmail.com","createdAt":"2023-07-26T14:52:26.216Z"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"email":"hello@email.com","createdAt":"2023-07-26T14:52:48.413Z"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"email":"amjjl@glimm.com","createdAt":"2023-08-07T20:33:04.745Z"}</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8" count="8">
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>created At</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hello@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 26 2023 14:52:26 GMT+0000 (temps universel coordonné)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hello@email.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 26 2023 14:52:48 GMT+0000 (temps universel coordonné)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -409,59 +400,36 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:2">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8" count="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="10">
   <x:si>
     <x:t>0</x:t>
   </x:si>
@@ -22,7 +22,7 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>Email</x:t>
+    <x:t>Emails</x:t>
   </x:si>
   <x:si>
     <x:t>created At</x:t>
@@ -38,6 +38,12 @@
   </x:si>
   <x:si>
     <x:t>Wed Jul 26 2023 14:52:48 GMT+0000 (temps universel coordonné)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adrian@email.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Aug 23 2023 21:17:11 GMT+0000 (temps universel coordonné)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -432,6 +438,14 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4" count="4">
   <x:si>
     <x:t>0</x:t>
   </x:si>
@@ -26,24 +26,6 @@
   </x:si>
   <x:si>
     <x:t>created At</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hello@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Jul 26 2023 14:52:26 GMT+0000 (temps universel coordonné)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hello@email.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Jul 26 2023 14:52:48 GMT+0000 (temps universel coordonné)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adrian@email.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Aug 23 2023 21:17:11 GMT+0000 (temps universel coordonné)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -422,30 +404,6 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
